--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125013a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125013a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.591917932666169</v>
+      </c>
+      <c r="C5">
+        <v>1.720520808712546</v>
+      </c>
+      <c r="D5">
+        <v>1.988350703141582</v>
+      </c>
+      <c r="E5">
+        <v>2.016402284885709</v>
+      </c>
+      <c r="F5">
+        <v>2.027038184233929</v>
+      </c>
+      <c r="G5">
+        <v>4.084705967468605</v>
+      </c>
+      <c r="H5">
+        <v>2.08360743884657</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.591917932666169</v>
+        <v>4.599411904495814</v>
       </c>
       <c r="C6">
-        <v>1.720520808712546</v>
+        <v>4.681991369697231</v>
       </c>
       <c r="D6">
-        <v>1.988350703141582</v>
+        <v>7.003150065469248</v>
       </c>
       <c r="E6">
-        <v>2.016402284885709</v>
+        <v>6.720037753202106</v>
       </c>
       <c r="F6">
-        <v>2.027038184233929</v>
+        <v>5.609696049435627</v>
       </c>
       <c r="G6">
-        <v>4.084705967468605</v>
+        <v>12.38329029570444</v>
       </c>
       <c r="H6">
-        <v>2.08360743884657</v>
+        <v>6.132392475112795</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>4.599411904495814</v>
+        <v>4.15578499805456</v>
       </c>
       <c r="C7">
-        <v>4.681991369697231</v>
+        <v>4.520289113183108</v>
       </c>
       <c r="D7">
-        <v>7.003150065469248</v>
+        <v>4.879121172594313</v>
       </c>
       <c r="E7">
-        <v>6.720037753202106</v>
+        <v>7.2745776924651</v>
       </c>
       <c r="F7">
-        <v>5.609696049435627</v>
+        <v>4.308257474121989</v>
       </c>
       <c r="G7">
-        <v>12.38329029570444</v>
+        <v>9.233275425254856</v>
       </c>
       <c r="H7">
-        <v>6.132392475112795</v>
+        <v>4.587094154782425</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>8.942614033714337</v>
+      </c>
+      <c r="C8">
+        <v>10.03107708592722</v>
+      </c>
+      <c r="D8">
+        <v>11.210544526468</v>
+      </c>
+      <c r="E8">
+        <v>12.61482764361656</v>
+      </c>
+      <c r="F8">
+        <v>8.944934449673363</v>
+      </c>
+      <c r="G8">
+        <v>20.94434425670015</v>
+      </c>
+      <c r="H8">
+        <v>9.416578556195464</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>4.15578499805456</v>
+        <v>10.61480774201598</v>
       </c>
       <c r="C9">
-        <v>4.520289113183108</v>
+        <v>11.74918876313446</v>
       </c>
       <c r="D9">
-        <v>4.879121172594313</v>
+        <v>11.38101202854701</v>
       </c>
       <c r="E9">
-        <v>7.2745776924651</v>
+        <v>13.64155413978385</v>
       </c>
       <c r="F9">
-        <v>4.308257474121989</v>
+        <v>10.74526186610795</v>
       </c>
       <c r="G9">
-        <v>9.233275425254856</v>
+        <v>21.77157752697569</v>
       </c>
       <c r="H9">
-        <v>4.587094154782425</v>
+        <v>11.29512763017119</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>8.942614033714337</v>
+        <v>11.47244943795685</v>
       </c>
       <c r="C10">
-        <v>10.03107708592722</v>
+        <v>11.19602360249551</v>
       </c>
       <c r="D10">
-        <v>11.210544526468</v>
+        <v>14.31594835366084</v>
       </c>
       <c r="E10">
-        <v>12.61482764361656</v>
+        <v>16.88721442759334</v>
       </c>
       <c r="F10">
-        <v>8.944934449673363</v>
+        <v>11.57329336477891</v>
       </c>
       <c r="G10">
-        <v>20.94434425670015</v>
+        <v>30.76959562015498</v>
       </c>
       <c r="H10">
-        <v>9.416578556195464</v>
+        <v>11.66218343406183</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>10.61480774201598</v>
+        <v>10.48330710570365</v>
       </c>
       <c r="C11">
-        <v>11.74918876313446</v>
+        <v>13.68362152631386</v>
       </c>
       <c r="D11">
-        <v>11.38101202854701</v>
+        <v>11.80859795767848</v>
       </c>
       <c r="E11">
-        <v>13.64155413978385</v>
+        <v>18.2646420521972</v>
       </c>
       <c r="F11">
-        <v>10.74526186610795</v>
+        <v>10.38333252382741</v>
       </c>
       <c r="G11">
-        <v>21.77157752697569</v>
+        <v>27.14402268270395</v>
       </c>
       <c r="H11">
-        <v>11.29512763017119</v>
+        <v>11.6530054098874</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>11.47244943795685</v>
+        <v>7.215631707759275</v>
       </c>
       <c r="C12">
-        <v>11.19602360249551</v>
+        <v>7.822985646892949</v>
       </c>
       <c r="D12">
-        <v>14.31594835366084</v>
+        <v>8.426740021876929</v>
       </c>
       <c r="E12">
-        <v>16.88721442759334</v>
+        <v>14.85704631521805</v>
       </c>
       <c r="F12">
-        <v>11.57329336477891</v>
+        <v>7.274548710624861</v>
       </c>
       <c r="G12">
-        <v>30.76959562015498</v>
+        <v>15.55897512762465</v>
       </c>
       <c r="H12">
-        <v>11.66218343406183</v>
+        <v>8.005677666074114</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>10.48330710570365</v>
+        <v>13.54108293134639</v>
       </c>
       <c r="C13">
-        <v>13.68362152631386</v>
+        <v>18.2887204408007</v>
       </c>
       <c r="D13">
-        <v>11.80859795767848</v>
+        <v>13.98731815215912</v>
       </c>
       <c r="E13">
-        <v>18.2646420521972</v>
+        <v>20.7375895518862</v>
       </c>
       <c r="F13">
-        <v>10.38333252382741</v>
+        <v>14.44344681323128</v>
       </c>
       <c r="G13">
-        <v>27.14402268270395</v>
+        <v>27.02461238449792</v>
       </c>
       <c r="H13">
-        <v>11.6530054098874</v>
+        <v>15.1355145397762</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>7.215631707759275</v>
+        <v>11.69173193603076</v>
       </c>
       <c r="C14">
-        <v>7.822985646892949</v>
+        <v>11.2859022447362</v>
       </c>
       <c r="D14">
-        <v>8.426740021876929</v>
+        <v>14.32470311044477</v>
       </c>
       <c r="E14">
-        <v>14.85704631521805</v>
+        <v>17.6795749542984</v>
       </c>
       <c r="F14">
-        <v>7.274548710624861</v>
+        <v>13.4374233256129</v>
       </c>
       <c r="G14">
-        <v>15.55897512762465</v>
+        <v>23.38139966256263</v>
       </c>
       <c r="H14">
-        <v>8.005677666074114</v>
+        <v>12.08518476718884</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>13.54108293134639</v>
+        <v>3.874819333529007</v>
       </c>
       <c r="C15">
-        <v>18.2887204408007</v>
+        <v>3.750953942564359</v>
       </c>
       <c r="D15">
-        <v>13.98731815215912</v>
+        <v>4.806785031716396</v>
       </c>
       <c r="E15">
-        <v>20.7375895518862</v>
+        <v>4.274913140241028</v>
       </c>
       <c r="F15">
-        <v>14.44344681323128</v>
+        <v>4.396482064611833</v>
       </c>
       <c r="G15">
-        <v>27.02461238449792</v>
+        <v>7.822252458722351</v>
       </c>
       <c r="H15">
-        <v>15.1355145397762</v>
+        <v>4.445249730785116</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>11.69173193603076</v>
+        <v>17.62100063663628</v>
       </c>
       <c r="C16">
-        <v>11.2859022447362</v>
+        <v>16.46984182503754</v>
       </c>
       <c r="D16">
-        <v>14.32470311044477</v>
+        <v>20.46569518017267</v>
       </c>
       <c r="E16">
-        <v>17.6795749542984</v>
+        <v>18.65960283153724</v>
       </c>
       <c r="F16">
-        <v>13.4374233256129</v>
+        <v>18.15679569134887</v>
       </c>
       <c r="G16">
-        <v>23.38139966256263</v>
+        <v>31.73232694461822</v>
       </c>
       <c r="H16">
-        <v>12.08518476718884</v>
+        <v>17.77110227604993</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>3.874819333529007</v>
+        <v>13.13155078611645</v>
       </c>
       <c r="C17">
-        <v>3.750953942564359</v>
+        <v>12.65685720562393</v>
       </c>
       <c r="D17">
-        <v>4.806785031716396</v>
+        <v>17.07462613981827</v>
       </c>
       <c r="E17">
-        <v>4.274913140241028</v>
+        <v>14.79063629512042</v>
       </c>
       <c r="F17">
-        <v>4.396482064611833</v>
+        <v>13.20032579837118</v>
       </c>
       <c r="G17">
-        <v>7.822252458722351</v>
+        <v>28.356011993901</v>
       </c>
       <c r="H17">
-        <v>4.445249730785116</v>
+        <v>13.67297816112702</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>17.62100063663628</v>
+        <v>7.138117621389976</v>
       </c>
       <c r="C18">
-        <v>16.46984182503754</v>
+        <v>7.785906230140216</v>
       </c>
       <c r="D18">
-        <v>20.46569518017267</v>
+        <v>7.832563681288336</v>
       </c>
       <c r="E18">
-        <v>18.65960283153724</v>
+        <v>9.047481564223052</v>
       </c>
       <c r="F18">
-        <v>18.15679569134887</v>
+        <v>7.811871851090318</v>
       </c>
       <c r="G18">
-        <v>31.73232694461822</v>
+        <v>25.8039246706086</v>
       </c>
       <c r="H18">
-        <v>17.77110227604993</v>
+        <v>7.493558473192287</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>13.13155078611645</v>
+        <v>10.77331624731087</v>
       </c>
       <c r="C19">
-        <v>12.65685720562393</v>
+        <v>12.40397581656583</v>
       </c>
       <c r="D19">
-        <v>17.07462613981827</v>
+        <v>13.12907379609062</v>
       </c>
       <c r="E19">
-        <v>14.79063629512042</v>
+        <v>15.27827058306377</v>
       </c>
       <c r="F19">
-        <v>13.20032579837118</v>
+        <v>10.94276121455612</v>
       </c>
       <c r="G19">
-        <v>28.356011993901</v>
+        <v>22.81203629729603</v>
       </c>
       <c r="H19">
-        <v>13.67297816112702</v>
+        <v>12.16110577258215</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>7.138117621389976</v>
+        <v>11.63233172881337</v>
       </c>
       <c r="C20">
-        <v>7.785906230140216</v>
+        <v>13.90120062442948</v>
       </c>
       <c r="D20">
-        <v>7.832563681288336</v>
+        <v>13.36877813138489</v>
       </c>
       <c r="E20">
-        <v>9.047481564223052</v>
+        <v>15.38578622927556</v>
       </c>
       <c r="F20">
-        <v>7.811871851090318</v>
+        <v>14.62820268077149</v>
       </c>
       <c r="G20">
-        <v>25.8039246706086</v>
+        <v>29.1673130250083</v>
       </c>
       <c r="H20">
-        <v>7.493558473192287</v>
+        <v>14.83281420262713</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>10.77331624731087</v>
+        <v>6.039061055031328</v>
       </c>
       <c r="C21">
-        <v>12.40397581656583</v>
+        <v>6.504734589472588</v>
       </c>
       <c r="D21">
-        <v>13.12907379609062</v>
+        <v>7.99017703456885</v>
       </c>
       <c r="E21">
-        <v>15.27827058306377</v>
+        <v>7.760575554690168</v>
       </c>
       <c r="F21">
-        <v>10.94276121455612</v>
+        <v>7.252806927382609</v>
       </c>
       <c r="G21">
-        <v>22.81203629729603</v>
+        <v>16.26097102762147</v>
       </c>
       <c r="H21">
-        <v>12.16110577258215</v>
+        <v>7.792870893010223</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>11.63233172881337</v>
+        <v>10.74917222425894</v>
       </c>
       <c r="C22">
-        <v>13.90120062442948</v>
+        <v>11.52549695122753</v>
       </c>
       <c r="D22">
-        <v>13.36877813138489</v>
+        <v>16.20053237858162</v>
       </c>
       <c r="E22">
-        <v>15.38578622927556</v>
+        <v>17.98274153098281</v>
       </c>
       <c r="F22">
-        <v>14.62820268077149</v>
+        <v>11.07918530188908</v>
       </c>
       <c r="G22">
-        <v>29.1673130250083</v>
+        <v>34.14750647325278</v>
       </c>
       <c r="H22">
-        <v>14.83281420262713</v>
+        <v>11.68450227467096</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>6.039061055031328</v>
+        <v>9.213847890363311</v>
       </c>
       <c r="C23">
-        <v>6.504734589472588</v>
+        <v>11.10437688711349</v>
       </c>
       <c r="D23">
-        <v>7.99017703456885</v>
+        <v>12.33866080388879</v>
       </c>
       <c r="E23">
-        <v>7.760575554690168</v>
+        <v>12.47218429258726</v>
       </c>
       <c r="F23">
-        <v>7.252806927382609</v>
+        <v>10.57077842505263</v>
       </c>
       <c r="G23">
-        <v>16.26097102762147</v>
+        <v>21.61262797110124</v>
       </c>
       <c r="H23">
-        <v>7.792870893010223</v>
+        <v>10.93178093618656</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>10.74917222425894</v>
+        <v>5.681499843487578</v>
       </c>
       <c r="C24">
-        <v>11.52549695122753</v>
+        <v>6.010395323438881</v>
       </c>
       <c r="D24">
-        <v>16.20053237858162</v>
+        <v>6.67146394968117</v>
       </c>
       <c r="E24">
-        <v>17.98274153098281</v>
+        <v>9.161137828568496</v>
       </c>
       <c r="F24">
-        <v>11.07918530188908</v>
+        <v>5.656511694921294</v>
       </c>
       <c r="G24">
-        <v>34.14750647325278</v>
+        <v>6.978476954428421</v>
       </c>
       <c r="H24">
-        <v>11.68450227467096</v>
+        <v>7.020004529954925</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>9.213847890363311</v>
+        <v>2.799510227285805</v>
       </c>
       <c r="C25">
-        <v>11.10437688711349</v>
+        <v>3.009681039344133</v>
       </c>
       <c r="D25">
-        <v>12.33866080388879</v>
+        <v>3.50802740617094</v>
       </c>
       <c r="E25">
-        <v>12.47218429258726</v>
+        <v>3.433966689720604</v>
       </c>
       <c r="F25">
-        <v>10.57077842505263</v>
+        <v>3.503076579301758</v>
       </c>
       <c r="G25">
-        <v>21.61262797110124</v>
+        <v>6.530765897239392</v>
       </c>
       <c r="H25">
-        <v>10.93178093618656</v>
+        <v>3.714354061421531</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>5.681499843487578</v>
+        <v>4.961407899082059</v>
       </c>
       <c r="C26">
-        <v>6.010395323438881</v>
+        <v>5.424746863695845</v>
       </c>
       <c r="D26">
-        <v>6.67146394968117</v>
+        <v>5.895536309044378</v>
       </c>
       <c r="E26">
-        <v>9.161137828568496</v>
+        <v>6.541912658133834</v>
       </c>
       <c r="F26">
-        <v>5.656511694921294</v>
+        <v>5.406170288296547</v>
       </c>
       <c r="G26">
-        <v>6.978476954428421</v>
+        <v>10.53607429076173</v>
       </c>
       <c r="H26">
-        <v>7.020004529954925</v>
+        <v>5.507449136975112</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>2.799510227285805</v>
+        <v>10.30288030238203</v>
       </c>
       <c r="C27">
-        <v>3.009681039344133</v>
+        <v>13.00062348802185</v>
       </c>
       <c r="D27">
-        <v>3.50802740617094</v>
+        <v>11.70344004427032</v>
       </c>
       <c r="E27">
-        <v>3.433966689720604</v>
+        <v>13.83316898024225</v>
       </c>
       <c r="F27">
-        <v>3.503076579301758</v>
+        <v>11.40803150029386</v>
       </c>
       <c r="G27">
-        <v>6.530765897239392</v>
+        <v>21.72300612281039</v>
       </c>
       <c r="H27">
-        <v>3.714354061421531</v>
+        <v>11.56399700764337</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>4.961407899082059</v>
+        <v>5.707334189898313</v>
       </c>
       <c r="C28">
-        <v>5.424746863695845</v>
+        <v>6.57581098849636</v>
       </c>
       <c r="D28">
-        <v>5.895536309044378</v>
+        <v>7.304144380023838</v>
       </c>
       <c r="E28">
-        <v>6.541912658133834</v>
+        <v>6.999063938698338</v>
       </c>
       <c r="F28">
-        <v>5.406170288296547</v>
+        <v>8.116957318212194</v>
       </c>
       <c r="G28">
-        <v>10.53607429076173</v>
+        <v>14.00103420748108</v>
       </c>
       <c r="H28">
-        <v>5.507449136975112</v>
+        <v>8.711798818952992</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>10.30288030238203</v>
+        <v>4.224262035630449</v>
       </c>
       <c r="C29">
-        <v>13.00062348802185</v>
+        <v>4.408296525972233</v>
       </c>
       <c r="D29">
-        <v>11.70344004427032</v>
+        <v>5.442333693934446</v>
       </c>
       <c r="E29">
-        <v>13.83316898024225</v>
+        <v>4.842519572781414</v>
       </c>
       <c r="F29">
-        <v>11.40803150029386</v>
+        <v>6.049618426802292</v>
       </c>
       <c r="G29">
-        <v>21.72300612281039</v>
+        <v>11.01306845763632</v>
       </c>
       <c r="H29">
-        <v>11.56399700764337</v>
+        <v>6.611541561916603</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>5.707334189898313</v>
+        <v>3.197790273705401</v>
       </c>
       <c r="C30">
-        <v>6.57581098849636</v>
+        <v>3.527752262262117</v>
       </c>
       <c r="D30">
-        <v>7.304144380023838</v>
+        <v>4.143345275475886</v>
       </c>
       <c r="E30">
-        <v>6.999063938698338</v>
+        <v>3.680813839850286</v>
       </c>
       <c r="F30">
-        <v>8.116957318212194</v>
+        <v>5.260655111186963</v>
       </c>
       <c r="G30">
-        <v>14.00103420748108</v>
+        <v>10.42948346521336</v>
       </c>
       <c r="H30">
-        <v>8.711798818952992</v>
+        <v>5.845006129806436</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>4.224262035630449</v>
+        <v>4.632253348583405</v>
       </c>
       <c r="C31">
-        <v>4.408296525972233</v>
+        <v>5.03748078832679</v>
       </c>
       <c r="D31">
-        <v>5.442333693934446</v>
+        <v>6.581098161011903</v>
       </c>
       <c r="E31">
-        <v>4.842519572781414</v>
+        <v>5.259036528513422</v>
       </c>
       <c r="F31">
-        <v>6.049618426802292</v>
+        <v>7.298596509218367</v>
       </c>
       <c r="G31">
-        <v>11.01306845763632</v>
+        <v>17.80271696815038</v>
       </c>
       <c r="H31">
-        <v>6.611541561916603</v>
+        <v>8.137520706794751</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>3.197790273705401</v>
+        <v>7.612748349057986</v>
       </c>
       <c r="C32">
-        <v>3.527752262262117</v>
+        <v>7.999177257237497</v>
       </c>
       <c r="D32">
-        <v>4.143345275475886</v>
+        <v>10.20671818503895</v>
       </c>
       <c r="E32">
-        <v>3.680813839850286</v>
+        <v>8.549533409600711</v>
       </c>
       <c r="F32">
-        <v>5.260655111186963</v>
+        <v>14.54372715590855</v>
       </c>
       <c r="G32">
-        <v>10.42948346521336</v>
+        <v>25.6864767311974</v>
       </c>
       <c r="H32">
-        <v>5.845006129806436</v>
+        <v>15.17954205347585</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>4.632253348583405</v>
+        <v>5.199608946392152</v>
       </c>
       <c r="C33">
-        <v>5.03748078832679</v>
+        <v>5.912773734257211</v>
       </c>
       <c r="D33">
-        <v>6.581098161011903</v>
+        <v>6.189250458884717</v>
       </c>
       <c r="E33">
-        <v>5.259036528513422</v>
+        <v>5.982922377747031</v>
       </c>
       <c r="F33">
-        <v>7.298596509218367</v>
+        <v>8.738991865490917</v>
       </c>
       <c r="G33">
-        <v>17.80271696815038</v>
+        <v>14.85944200514227</v>
       </c>
       <c r="H33">
-        <v>8.137520706794751</v>
+        <v>10.21038132889729</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>7.612748349057986</v>
+        <v>3.194471667231749</v>
       </c>
       <c r="C34">
-        <v>7.999177257237497</v>
+        <v>3.848441176146822</v>
       </c>
       <c r="D34">
-        <v>10.20671818503895</v>
+        <v>4.048021528543506</v>
       </c>
       <c r="E34">
-        <v>8.549533409600711</v>
+        <v>4.193015537534051</v>
       </c>
       <c r="F34">
-        <v>14.54372715590855</v>
+        <v>4.012439149422382</v>
       </c>
       <c r="G34">
-        <v>25.6864767311974</v>
+        <v>8.673452001325559</v>
       </c>
       <c r="H34">
-        <v>15.17954205347585</v>
+        <v>4.23623748363248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>5.199608946392152</v>
+        <v>7.195084260177779</v>
       </c>
       <c r="C35">
-        <v>5.912773734257211</v>
+        <v>7.516248183280928</v>
       </c>
       <c r="D35">
-        <v>6.189250458884717</v>
+        <v>10.03488483418739</v>
       </c>
       <c r="E35">
-        <v>5.982922377747031</v>
+        <v>10.33282631871814</v>
       </c>
       <c r="F35">
-        <v>8.738991865490917</v>
+        <v>9.195002176746586</v>
       </c>
       <c r="G35">
-        <v>14.85944200514227</v>
+        <v>19.75251921550737</v>
       </c>
       <c r="H35">
-        <v>10.21038132889729</v>
+        <v>9.526785237674487</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>3.194471667231749</v>
+        <v>7.055630334909741</v>
       </c>
       <c r="C36">
-        <v>3.848441176146822</v>
+        <v>9.159966961415256</v>
       </c>
       <c r="D36">
-        <v>4.048021528543506</v>
+        <v>8.752063883930518</v>
       </c>
       <c r="E36">
-        <v>4.193015537534051</v>
+        <v>8.770618200662934</v>
       </c>
       <c r="F36">
-        <v>4.012439149422382</v>
+        <v>8.59672345040156</v>
       </c>
       <c r="G36">
-        <v>8.673452001325559</v>
+        <v>17.645035980615</v>
       </c>
       <c r="H36">
-        <v>4.23623748363248</v>
+        <v>9.427817531943838</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>7.195084260177779</v>
+        <v>5.007966195380185</v>
       </c>
       <c r="C37">
-        <v>7.516248183280928</v>
+        <v>6.035066392233822</v>
       </c>
       <c r="D37">
-        <v>10.03488483418739</v>
+        <v>6.216814944581747</v>
       </c>
       <c r="E37">
-        <v>10.33282631871814</v>
+        <v>6.55741867498959</v>
       </c>
       <c r="F37">
-        <v>9.195002176746586</v>
+        <v>6.194938424304308</v>
       </c>
       <c r="G37">
-        <v>19.75251921550737</v>
+        <v>13.46899398394337</v>
       </c>
       <c r="H37">
-        <v>9.526785237674487</v>
+        <v>6.460567725264269</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>7.055630334909741</v>
+        <v>6.475632813483244</v>
       </c>
       <c r="C38">
-        <v>9.159966961415256</v>
+        <v>7.861451813344273</v>
       </c>
       <c r="D38">
-        <v>8.752063883930518</v>
+        <v>8.369534639821694</v>
       </c>
       <c r="E38">
-        <v>8.770618200662934</v>
+        <v>8.595502368428777</v>
       </c>
       <c r="F38">
-        <v>8.59672345040156</v>
+        <v>7.784157492630908</v>
       </c>
       <c r="G38">
-        <v>17.645035980615</v>
+        <v>17.83902882181145</v>
       </c>
       <c r="H38">
-        <v>9.427817531943838</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>5.007966195380185</v>
-      </c>
-      <c r="C39">
-        <v>6.035066392233822</v>
-      </c>
-      <c r="D39">
-        <v>6.216814944581747</v>
-      </c>
-      <c r="E39">
-        <v>6.55741867498959</v>
-      </c>
-      <c r="F39">
-        <v>6.194938424304308</v>
-      </c>
-      <c r="G39">
-        <v>13.46899398394337</v>
-      </c>
-      <c r="H39">
-        <v>6.460567725264269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>6.475632813483244</v>
-      </c>
-      <c r="C40">
-        <v>7.861451813344273</v>
-      </c>
-      <c r="D40">
-        <v>8.369534639821694</v>
-      </c>
-      <c r="E40">
-        <v>8.595502368428777</v>
-      </c>
-      <c r="F40">
-        <v>7.784157492630908</v>
-      </c>
-      <c r="G40">
-        <v>17.83902882181145</v>
-      </c>
-      <c r="H40">
         <v>8.511332785291504</v>
       </c>
     </row>
